--- a/Fundamentals_workshop_2023/Lecture_3_homework/topic.xlsx
+++ b/Fundamentals_workshop_2023/Lecture_3_homework/topic.xlsx
@@ -416,7 +416,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -448,7 +448,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -464,7 +464,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
         <v>14</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -810,7 +810,7 @@
         <v>28</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -842,7 +842,7 @@
         <v>30</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -858,7 +858,7 @@
         <v>31</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -954,7 +954,7 @@
         <v>37</v>
       </c>
       <c r="B38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -978,7 +978,7 @@
         </is>
       </c>
       <c r="D39">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40">
@@ -986,7 +986,7 @@
         <v>39</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -1002,7 +1002,7 @@
         <v>40</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -1050,7 +1050,7 @@
         <v>43</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -1066,7 +1066,7 @@
         <v>44</v>
       </c>
       <c r="B45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -1082,7 +1082,7 @@
         <v>45</v>
       </c>
       <c r="B46">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -1130,7 +1130,7 @@
         <v>48</v>
       </c>
       <c r="B49">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -1146,7 +1146,7 @@
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -1210,7 +1210,7 @@
         <v>53</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -1226,7 +1226,7 @@
         <v>54</v>
       </c>
       <c r="B55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -1274,7 +1274,7 @@
         <v>57</v>
       </c>
       <c r="B58">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -1290,7 +1290,7 @@
         <v>58</v>
       </c>
       <c r="B59">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -1354,7 +1354,7 @@
         <v>62</v>
       </c>
       <c r="B63">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -1466,7 +1466,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -1530,7 +1530,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -1570,7 +1570,7 @@
         </is>
       </c>
       <c r="D76">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="77">
@@ -1594,7 +1594,7 @@
         <v>77</v>
       </c>
       <c r="B78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -1626,7 +1626,7 @@
         <v>79</v>
       </c>
       <c r="B80">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -1674,7 +1674,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -1690,7 +1690,7 @@
         <v>83</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -1722,7 +1722,7 @@
         <v>85</v>
       </c>
       <c r="B86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -1770,7 +1770,7 @@
         <v>88</v>
       </c>
       <c r="B89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -1802,7 +1802,7 @@
         <v>90</v>
       </c>
       <c r="B91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -1818,7 +1818,7 @@
         <v>91</v>
       </c>
       <c r="B92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -1834,7 +1834,7 @@
         <v>92</v>
       </c>
       <c r="B93">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -1892,7 +1892,7 @@
         <v>96</v>
       </c>
       <c r="B97">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
@@ -1988,7 +1988,7 @@
         <v>102</v>
       </c>
       <c r="B103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
@@ -2020,7 +2020,7 @@
         <v>104</v>
       </c>
       <c r="B105">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
@@ -2036,7 +2036,7 @@
         <v>105</v>
       </c>
       <c r="B106">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
@@ -2084,7 +2084,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
@@ -2100,7 +2100,7 @@
         <v>109</v>
       </c>
       <c r="B110">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C110" t="inlineStr">
         <is>
@@ -2132,7 +2132,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C112" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C116" t="inlineStr">
         <is>
@@ -2227,16 +2227,10 @@
       <c r="A118">
         <v>117</v>
       </c>
-      <c r="B118">
-        <v>0</v>
-      </c>
       <c r="C118" t="inlineStr">
         <is>
           <t>sus_degree</t>
         </is>
-      </c>
-      <c r="D118">
-        <v>1</v>
       </c>
     </row>
     <row r="119">
@@ -2276,7 +2270,7 @@
         <v>120</v>
       </c>
       <c r="B121">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C121" t="inlineStr">
         <is>
@@ -2292,7 +2286,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C122" t="inlineStr">
         <is>
@@ -2340,7 +2334,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C125" t="inlineStr">
         <is>
@@ -2548,7 +2542,7 @@
         <v>137</v>
       </c>
       <c r="B138">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C138" t="inlineStr">
         <is>
@@ -2564,7 +2558,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C139" t="inlineStr">
         <is>
@@ -2580,7 +2574,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C140" t="inlineStr">
         <is>
@@ -2676,7 +2670,7 @@
         <v>145</v>
       </c>
       <c r="B146">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C146" t="inlineStr">
         <is>
@@ -2724,7 +2718,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C149" t="inlineStr">
         <is>
@@ -2772,7 +2766,7 @@
         <v>151</v>
       </c>
       <c r="B152">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C152" t="inlineStr">
         <is>
@@ -2820,7 +2814,7 @@
         <v>154</v>
       </c>
       <c r="B155">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C155" t="inlineStr">
         <is>
@@ -2884,7 +2878,7 @@
         <v>158</v>
       </c>
       <c r="B159">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C159" t="inlineStr">
         <is>
@@ -2932,7 +2926,7 @@
         <v>161</v>
       </c>
       <c r="B162">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C162" t="inlineStr">
         <is>
@@ -2948,7 +2942,7 @@
         <v>162</v>
       </c>
       <c r="B163">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C163" t="inlineStr">
         <is>
@@ -2980,7 +2974,7 @@
         <v>164</v>
       </c>
       <c r="B165">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C165" t="inlineStr">
         <is>
@@ -3070,7 +3064,7 @@
         <v>170</v>
       </c>
       <c r="B171">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C171" t="inlineStr">
         <is>
@@ -3150,7 +3144,7 @@
         <v>175</v>
       </c>
       <c r="B176">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C176" t="inlineStr">
         <is>
@@ -3166,7 +3160,7 @@
         <v>176</v>
       </c>
       <c r="B177">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C177" t="inlineStr">
         <is>
@@ -3198,7 +3192,7 @@
         <v>178</v>
       </c>
       <c r="B179">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C179" t="inlineStr">
         <is>
@@ -3224,7 +3218,7 @@
         <v>180</v>
       </c>
       <c r="B181">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C181" t="inlineStr">
         <is>
@@ -3240,7 +3234,7 @@
         <v>181</v>
       </c>
       <c r="B182">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C182" t="inlineStr">
         <is>
@@ -3256,7 +3250,7 @@
         <v>182</v>
       </c>
       <c r="B183">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="inlineStr">
         <is>
@@ -3330,7 +3324,7 @@
         <v>187</v>
       </c>
       <c r="B188">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C188" t="inlineStr">
         <is>
@@ -3346,7 +3340,7 @@
         <v>188</v>
       </c>
       <c r="B189">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C189" t="inlineStr">
         <is>
@@ -3426,7 +3420,7 @@
         <v>193</v>
       </c>
       <c r="B194">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C194" t="inlineStr">
         <is>
@@ -3458,7 +3452,7 @@
         <v>195</v>
       </c>
       <c r="B196">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C196" t="inlineStr">
         <is>
@@ -3474,7 +3468,7 @@
         <v>196</v>
       </c>
       <c r="B197">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C197" t="inlineStr">
         <is>
@@ -3554,7 +3548,7 @@
         <v>201</v>
       </c>
       <c r="B202">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C202" t="inlineStr">
         <is>
@@ -3586,7 +3580,7 @@
         <v>203</v>
       </c>
       <c r="B204">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C204" t="inlineStr">
         <is>
@@ -3634,7 +3628,7 @@
         <v>206</v>
       </c>
       <c r="B207">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C207" t="inlineStr">
         <is>
@@ -3746,7 +3740,7 @@
         <v>213</v>
       </c>
       <c r="B214">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C214" t="inlineStr">
         <is>
@@ -3810,7 +3804,7 @@
         <v>217</v>
       </c>
       <c r="B218">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C218" t="inlineStr">
         <is>
@@ -3842,7 +3836,7 @@
         <v>219</v>
       </c>
       <c r="B220">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C220" t="inlineStr">
         <is>
@@ -3900,7 +3894,7 @@
         <v>223</v>
       </c>
       <c r="B224">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C224" t="inlineStr">
         <is>
@@ -3948,7 +3942,7 @@
         <v>226</v>
       </c>
       <c r="B227">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C227" t="inlineStr">
         <is>
@@ -3964,7 +3958,7 @@
         <v>227</v>
       </c>
       <c r="B228">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C228" t="inlineStr">
         <is>
@@ -3980,7 +3974,7 @@
         <v>228</v>
       </c>
       <c r="B229">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C229" t="inlineStr">
         <is>
@@ -4012,7 +4006,7 @@
         <v>230</v>
       </c>
       <c r="B231">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C231" t="inlineStr">
         <is>
@@ -4028,7 +4022,7 @@
         <v>231</v>
       </c>
       <c r="B232">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C232" t="inlineStr">
         <is>
@@ -4118,7 +4112,7 @@
         <v>237</v>
       </c>
       <c r="B238">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C238" t="inlineStr">
         <is>
@@ -4150,7 +4144,7 @@
         <v>239</v>
       </c>
       <c r="B240">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C240" t="inlineStr">
         <is>
@@ -4198,7 +4192,7 @@
         <v>242</v>
       </c>
       <c r="B243">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C243" t="inlineStr">
         <is>
@@ -4214,7 +4208,7 @@
         <v>243</v>
       </c>
       <c r="B244">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C244" t="inlineStr">
         <is>
@@ -4246,7 +4240,7 @@
         <v>245</v>
       </c>
       <c r="B246">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C246" t="inlineStr">
         <is>
@@ -4262,7 +4256,7 @@
         <v>246</v>
       </c>
       <c r="B247">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C247" t="inlineStr">
         <is>
@@ -4334,7 +4328,7 @@
         </is>
       </c>
       <c r="D251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252">
@@ -4358,7 +4352,7 @@
         <v>252</v>
       </c>
       <c r="B253">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C253" t="inlineStr">
         <is>
@@ -4374,7 +4368,7 @@
         <v>253</v>
       </c>
       <c r="B254">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C254" t="inlineStr">
         <is>
@@ -4438,7 +4432,7 @@
         <v>257</v>
       </c>
       <c r="B258">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C258" t="inlineStr">
         <is>
@@ -4454,7 +4448,7 @@
         <v>258</v>
       </c>
       <c r="B259">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C259" t="inlineStr">
         <is>
@@ -4486,7 +4480,7 @@
         <v>260</v>
       </c>
       <c r="B261">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C261" t="inlineStr">
         <is>
@@ -4518,7 +4512,7 @@
         <v>262</v>
       </c>
       <c r="B263">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C263" t="inlineStr">
         <is>
@@ -4550,7 +4544,7 @@
         <v>264</v>
       </c>
       <c r="B265">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C265" t="inlineStr">
         <is>
@@ -4558,7 +4552,7 @@
         </is>
       </c>
       <c r="D265">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266">
@@ -4582,7 +4576,7 @@
         <v>266</v>
       </c>
       <c r="B267">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C267" t="inlineStr">
         <is>
@@ -4630,7 +4624,7 @@
         <v>269</v>
       </c>
       <c r="B270">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C270" t="inlineStr">
         <is>
@@ -4662,7 +4656,7 @@
         <v>271</v>
       </c>
       <c r="B272">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C272" t="inlineStr">
         <is>
@@ -4742,7 +4736,7 @@
         <v>276</v>
       </c>
       <c r="B277">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C277" t="inlineStr">
         <is>
@@ -4832,7 +4826,7 @@
         <v>282</v>
       </c>
       <c r="B283">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C283" t="inlineStr">
         <is>
@@ -4840,7 +4834,7 @@
         </is>
       </c>
       <c r="D283">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="284">
@@ -4848,7 +4842,7 @@
         <v>283</v>
       </c>
       <c r="B284">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C284" t="inlineStr">
         <is>
@@ -4874,7 +4868,7 @@
         <v>285</v>
       </c>
       <c r="B286">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C286" t="inlineStr">
         <is>
@@ -4938,7 +4932,7 @@
         <v>289</v>
       </c>
       <c r="B290">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C290" t="inlineStr">
         <is>
@@ -5176,7 +5170,7 @@
         <v>311</v>
       </c>
       <c r="B312">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C312" t="inlineStr">
         <is>
@@ -5324,7 +5318,7 @@
         <v>324</v>
       </c>
       <c r="B325">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C325" t="inlineStr">
         <is>
@@ -6902,7 +6896,7 @@
         <v>480</v>
       </c>
       <c r="B481">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C481" t="inlineStr">
         <is>
@@ -8238,7 +8232,7 @@
         <v>610</v>
       </c>
       <c r="B611">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C611" t="inlineStr">
         <is>
@@ -8398,7 +8392,7 @@
         <v>620</v>
       </c>
       <c r="B621">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C621" t="inlineStr">
         <is>
@@ -8494,7 +8488,7 @@
         <v>626</v>
       </c>
       <c r="B627">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C627" t="inlineStr">
         <is>
@@ -8574,7 +8568,7 @@
         <v>631</v>
       </c>
       <c r="B632">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C632" t="inlineStr">
         <is>
@@ -8590,7 +8584,7 @@
         <v>632</v>
       </c>
       <c r="B633">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C633" t="inlineStr">
         <is>
@@ -8702,7 +8696,7 @@
         <v>639</v>
       </c>
       <c r="B640">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C640" t="inlineStr">
         <is>
@@ -8782,7 +8776,7 @@
         <v>644</v>
       </c>
       <c r="B645">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C645" t="inlineStr">
         <is>
@@ -8814,7 +8808,7 @@
         <v>646</v>
       </c>
       <c r="B647">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C647" t="inlineStr">
         <is>
@@ -8830,7 +8824,7 @@
         <v>647</v>
       </c>
       <c r="B648">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C648" t="inlineStr">
         <is>
@@ -8878,7 +8872,7 @@
         <v>650</v>
       </c>
       <c r="B651">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C651" t="inlineStr">
         <is>
@@ -8926,7 +8920,7 @@
         <v>653</v>
       </c>
       <c r="B654">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C654" t="inlineStr">
         <is>
@@ -9038,7 +9032,7 @@
         <v>660</v>
       </c>
       <c r="B661">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C661" t="inlineStr">
         <is>
@@ -9054,7 +9048,7 @@
         <v>661</v>
       </c>
       <c r="B662">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C662" t="inlineStr">
         <is>
@@ -9070,7 +9064,7 @@
         <v>662</v>
       </c>
       <c r="B663">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C663" t="inlineStr">
         <is>
@@ -9102,7 +9096,7 @@
         <v>664</v>
       </c>
       <c r="B665">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C665" t="inlineStr">
         <is>
@@ -9214,7 +9208,7 @@
         <v>671</v>
       </c>
       <c r="B672">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C672" t="inlineStr">
         <is>
@@ -9318,7 +9312,7 @@
         </is>
       </c>
       <c r="D678">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="679">
@@ -9374,7 +9368,7 @@
         <v>681</v>
       </c>
       <c r="B682">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C682" t="inlineStr">
         <is>
@@ -9406,7 +9400,7 @@
         <v>683</v>
       </c>
       <c r="B684">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C684" t="inlineStr">
         <is>
@@ -9774,7 +9768,7 @@
         <v>706</v>
       </c>
       <c r="B707">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C707" t="inlineStr">
         <is>
@@ -9870,7 +9864,7 @@
         <v>712</v>
       </c>
       <c r="B713">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C713" t="inlineStr">
         <is>
@@ -9934,7 +9928,7 @@
         <v>716</v>
       </c>
       <c r="B717">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C717" t="inlineStr">
         <is>
@@ -9982,7 +9976,7 @@
         <v>719</v>
       </c>
       <c r="B720">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C720" t="inlineStr">
         <is>
@@ -10046,7 +10040,7 @@
         <v>723</v>
       </c>
       <c r="B724">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C724" t="inlineStr">
         <is>
@@ -10254,7 +10248,7 @@
         <v>736</v>
       </c>
       <c r="B737">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C737" t="inlineStr">
         <is>
@@ -10334,7 +10328,7 @@
         <v>741</v>
       </c>
       <c r="B742">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C742" t="inlineStr">
         <is>
@@ -10382,7 +10376,7 @@
         <v>744</v>
       </c>
       <c r="B745">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C745" t="inlineStr">
         <is>
@@ -10414,7 +10408,7 @@
         <v>746</v>
       </c>
       <c r="B747">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C747" t="inlineStr">
         <is>
@@ -10558,7 +10552,7 @@
         <v>755</v>
       </c>
       <c r="B756">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C756" t="inlineStr">
         <is>
@@ -10574,7 +10568,7 @@
         <v>756</v>
       </c>
       <c r="B757">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C757" t="inlineStr">
         <is>
@@ -10622,7 +10616,7 @@
         <v>759</v>
       </c>
       <c r="B760">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C760" t="inlineStr">
         <is>
@@ -10654,7 +10648,7 @@
         <v>761</v>
       </c>
       <c r="B762">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C762" t="inlineStr">
         <is>
@@ -10686,7 +10680,7 @@
         <v>763</v>
       </c>
       <c r="B764">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C764" t="inlineStr">
         <is>
@@ -10702,7 +10696,7 @@
         <v>764</v>
       </c>
       <c r="B765">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C765" t="inlineStr">
         <is>
@@ -10750,7 +10744,7 @@
         <v>767</v>
       </c>
       <c r="B768">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C768" t="inlineStr">
         <is>
@@ -10782,7 +10776,7 @@
         <v>769</v>
       </c>
       <c r="B770">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C770" t="inlineStr">
         <is>
@@ -10846,7 +10840,7 @@
         <v>773</v>
       </c>
       <c r="B774">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C774" t="inlineStr">
         <is>
@@ -10958,7 +10952,7 @@
         <v>780</v>
       </c>
       <c r="B781">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C781" t="inlineStr">
         <is>
@@ -11022,7 +11016,7 @@
         <v>784</v>
       </c>
       <c r="B785">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C785" t="inlineStr">
         <is>
@@ -11198,7 +11192,7 @@
         <v>795</v>
       </c>
       <c r="B796">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C796" t="inlineStr">
         <is>
@@ -11326,7 +11320,7 @@
         <v>803</v>
       </c>
       <c r="B804">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C804" t="inlineStr">
         <is>
@@ -11406,7 +11400,7 @@
         <v>808</v>
       </c>
       <c r="B809">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C809" t="inlineStr">
         <is>
@@ -11662,7 +11656,7 @@
         <v>824</v>
       </c>
       <c r="B825">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C825" t="inlineStr">
         <is>
@@ -11688,7 +11682,7 @@
         <v>826</v>
       </c>
       <c r="B827">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C827" t="inlineStr">
         <is>
@@ -11720,7 +11714,7 @@
         <v>828</v>
       </c>
       <c r="B829">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C829" t="inlineStr">
         <is>
@@ -11752,7 +11746,7 @@
         <v>830</v>
       </c>
       <c r="B831">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C831" t="inlineStr">
         <is>
@@ -11768,7 +11762,7 @@
         <v>831</v>
       </c>
       <c r="B832">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C832" t="inlineStr">
         <is>
@@ -11832,7 +11826,7 @@
         <v>835</v>
       </c>
       <c r="B836">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C836" t="inlineStr">
         <is>
@@ -11880,7 +11874,7 @@
         <v>838</v>
       </c>
       <c r="B839">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C839" t="inlineStr">
         <is>
@@ -12050,7 +12044,7 @@
         <v>849</v>
       </c>
       <c r="B850">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C850" t="inlineStr">
         <is>
@@ -12130,7 +12124,7 @@
         <v>854</v>
       </c>
       <c r="B855">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C855" t="inlineStr">
         <is>
@@ -12178,7 +12172,7 @@
         <v>857</v>
       </c>
       <c r="B858">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C858" t="inlineStr">
         <is>
@@ -12282,7 +12276,7 @@
         </is>
       </c>
       <c r="D864">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="865">
@@ -12348,7 +12342,7 @@
         <v>868</v>
       </c>
       <c r="B869">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C869" t="inlineStr">
         <is>
@@ -13030,7 +13024,7 @@
         <v>926</v>
       </c>
       <c r="B927">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C927" t="inlineStr">
         <is>
@@ -13062,7 +13056,7 @@
         <v>928</v>
       </c>
       <c r="B929">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C929" t="inlineStr">
         <is>
@@ -13246,7 +13240,7 @@
         <v>944</v>
       </c>
       <c r="B945">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C945" t="inlineStr">
         <is>
@@ -13308,7 +13302,7 @@
         <v>949</v>
       </c>
       <c r="B950">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C950" t="inlineStr">
         <is>
@@ -13324,7 +13318,7 @@
         <v>950</v>
       </c>
       <c r="B951">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C951" t="inlineStr">
         <is>
@@ -13476,7 +13470,7 @@
         <v>961</v>
       </c>
       <c r="B962">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C962" t="inlineStr">
         <is>
@@ -13534,7 +13528,7 @@
         <v>965</v>
       </c>
       <c r="B966">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C966" t="inlineStr">
         <is>
@@ -13746,7 +13740,7 @@
         <v>982</v>
       </c>
       <c r="B983">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C983" t="inlineStr">
         <is>
@@ -13762,7 +13756,7 @@
         <v>983</v>
       </c>
       <c r="B984">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C984" t="inlineStr">
         <is>
@@ -13794,7 +13788,7 @@
         <v>985</v>
       </c>
       <c r="B986">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C986" t="inlineStr">
         <is>
@@ -13932,7 +13926,7 @@
         <v>997</v>
       </c>
       <c r="B998">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C998" t="inlineStr">
         <is>
@@ -13948,7 +13942,7 @@
         <v>998</v>
       </c>
       <c r="B999">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C999" t="inlineStr">
         <is>
@@ -14060,7 +14054,7 @@
         <v>1005</v>
       </c>
       <c r="B1006">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1006" t="inlineStr">
         <is>
@@ -14264,7 +14258,7 @@
         <v>1020</v>
       </c>
       <c r="B1021">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C1021" t="inlineStr">
         <is>
@@ -14436,7 +14430,7 @@
         <v>1033</v>
       </c>
       <c r="B1034">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1034" t="inlineStr">
         <is>
